--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1380.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1380.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.273195826746567</v>
+        <v>1.215181708335876</v>
       </c>
       <c r="B1">
-        <v>2.526498397151728</v>
+        <v>2.440188646316528</v>
       </c>
       <c r="C1">
-        <v>3.33141049594384</v>
+        <v>7.176395416259766</v>
       </c>
       <c r="D1">
-        <v>3.231969748082838</v>
+        <v>2.255922079086304</v>
       </c>
       <c r="E1">
-        <v>1.091041350527555</v>
+        <v>1.164646625518799</v>
       </c>
     </row>
   </sheetData>
